--- a/ITI/PCF/ValueSet-SlsSensitiveHIV.xlsx
+++ b/ITI/PCF/ValueSet-SlsSensitiveHIV.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-02T09:51:47-05:00</t>
+    <t>2024-02-22T13:56:06-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
